--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail11 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>4.301991418218187e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.394298677712815</v>
+        <v>3.014858710342244e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.95139287864721</v>
+        <v>1.608878304031257e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.014858710342244e-06</v>
+        <v>-0.09882969034799614</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.608878304031257e-06</v>
+        <v>0.3712342003416292</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09882969034799614</v>
+        <v>0.1472255591168772</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3712342003416292</v>
+        <v>1.610201102225054</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1472255591168772</v>
+        <v>1.556500992833499</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.527929646732257</v>
+        <v>3.987442280561596</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.556500992833499</v>
+        <v>3.895117312987676e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.987442280561596</v>
+        <v>38582302.54992963</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.895117312987676e-15</v>
+        <v>2.765060716197705e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>38582302.54992963</v>
+        <v>5.79824853427932</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.765060716197705e-06</v>
+        <v>0.0001504584442701279</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.79824853427932</v>
+        <v>8.427445390713652</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001504584442701279</v>
+        <v>1.496187967287507</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.427445390713652</v>
+        <v>0.01068583492570177</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.496187967287507</v>
+        <v>3.067220682944783</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01068583492570177</v>
+        <v>0.9542704201050155</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.067220682944783</v>
+        <v>1.788377516616642</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9542704201050155</v>
+        <v>2</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.788377516616642</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1702940537782606</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>3.134147977711191e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.647703322697058</v>
+        <v>2.139514223230863e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9.933542229310659</v>
+        <v>1.573941843975382e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.139514223230863e-06</v>
+        <v>-0.09006732108233015</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.573941843975382e-06</v>
+        <v>0.3723319822785381</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09006732108233015</v>
+        <v>0.1463772404846075</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3723319822785381</v>
+        <v>1.625224989188953</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1463772404846075</v>
+        <v>1.49166357910911</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.543945754522242</v>
+        <v>4.044476731117026</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.49166357910911</v>
+        <v>3.786035476072181e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.044476731117026</v>
+        <v>40037127.19550225</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.786035476072181e-15</v>
+        <v>2.688289790832285e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>40037127.19550225</v>
+        <v>6.068907170839131</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.688289790832285e-06</v>
+        <v>0.0001518620437540245</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.068907170839131</v>
+        <v>8.427150136309248</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001518620437540245</v>
+        <v>1.560502390509624</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.427150136309248</v>
+        <v>0.0107847654124978</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.560502390509624</v>
+        <v>3.071308929898925</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0107847654124978</v>
+        <v>0.9552376590842436</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.071308929898925</v>
+        <v>1.777218103635857</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9552376590842436</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.777218103635857</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.166533349205008</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>2.409661896524867e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.567751389824189</v>
+        <v>1.501116663523501e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.228545839426075</v>
+        <v>1.551197071241813e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.501116663523501e-06</v>
+        <v>-0.07429659176888313</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.551197071241813e-06</v>
+        <v>0.3529668760674455</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07429659176888313</v>
+        <v>0.1297769857041557</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3529668760674455</v>
+        <v>1.638044501463348</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1297769857041557</v>
+        <v>1.53189675646853</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.558731091907143</v>
+        <v>4.101990529706761</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.53189675646853</v>
+        <v>3.680612143420028e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.101990529706761</v>
+        <v>43795671.0897288</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.680612143420028e-15</v>
+        <v>2.506258831514272e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>43795671.0897288</v>
+        <v>7.059637895116651</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.506258831514272e-06</v>
+        <v>0.0001393403873981715</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.059637895116651</v>
+        <v>9.392087437212311</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001393403873981715</v>
+        <v>1.174545224406264</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.392087437212311</v>
+        <v>0.01229139761060997</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.174545224406264</v>
+        <v>2.926601863237872</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01229139761060997</v>
+        <v>0.9552534450276965</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.926601863237872</v>
+        <v>1.78378647976317</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9552534450276965</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.78378647976317</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.176814771842424</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>2.021699486652179e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6438013701548261</v>
+        <v>1.037305271360671e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.03833824557180021</v>
+        <v>1.537240511351258e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.037305271360671e-06</v>
+        <v>-0.05184908447028309</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.537240511351258e-06</v>
+        <v>0.3059289946865804</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05184908447028309</v>
+        <v>0.09603545215439935</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3059289946865804</v>
+        <v>1.651553960805726</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09603545215439935</v>
+        <v>1.549463362535312</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.571157205649968</v>
+        <v>4.111398416408457</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.549463362535312</v>
+        <v>3.663787130976371e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.111398416408457</v>
+        <v>44134795.70610844</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.663787130976371e-15</v>
+        <v>2.497796576768925e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>44134795.70610844</v>
+        <v>7.136618380206396</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.497796576768925e-06</v>
+        <v>0.000142685745711624</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.136618380206396</v>
+        <v>10.0193895335718</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000142685745711624</v>
+        <v>1.135321164213276</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.0193895335718</v>
+        <v>0.01432396041557484</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.135321164213276</v>
+        <v>2.760682163288843</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01432396041557484</v>
+        <v>0.9566945505295067</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.760682163288843</v>
+        <v>1.800013288139775</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9566945505295067</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.800013288139775</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.181814417375621</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>1.856291535346223e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.259125286463092</v>
+        <v>7.021941119590056e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.377665430772403</v>
+        <v>1.52957454222046e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.021941119590056e-07</v>
+        <v>-0.02798979895606706</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.52957454222046e-06</v>
+        <v>0.2421600748564193</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02798979895606706</v>
+        <v>0.05927339466828406</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2421600748564193</v>
+        <v>1.656005108154904</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05927339466828406</v>
+        <v>1.520383515989935</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.578675290436363</v>
+        <v>4.130293820524794</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.520383515989935</v>
+        <v>3.630341382813279e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.130293820524794</v>
+        <v>44873103.80061124</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.630341382813279e-15</v>
+        <v>2.46420439094452e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>44873103.80061124</v>
+        <v>7.310038871140279</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.46420439094452e-06</v>
+        <v>0.0001443523512447708</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.310038871140279</v>
+        <v>9.642246692389577</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001443523512447708</v>
+        <v>1.180916414700894</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.642246692389577</v>
+        <v>0.01342085978841517</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.180916414700894</v>
+        <v>2.888056981031672</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01342085978841517</v>
+        <v>0.9575923177876324</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.888056981031672</v>
+        <v>1.77329741388667</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9575923177876324</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.77329741388667</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1771123813501759</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>1.808266471556149e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2044020311985417</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.483005881188078</v>
+        <v>1.526368041322639e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>-0.008148993456954556</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.526368041322639e-06</v>
+        <v>0.1812029103404536</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.008148993456954556</v>
+        <v>0.03281904996657179</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1812029103404536</v>
+        <v>1.666154306642397</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03281904996657179</v>
+        <v>1.550821391830969</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.590554464854158</v>
+        <v>4.211156155731101</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.550821391830969</v>
+        <v>3.492260802668861e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.211156155731101</v>
+        <v>46919678.49268902</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.492260802668861e-15</v>
+        <v>2.370056971857152e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>46919678.49268902</v>
+        <v>7.688059300321836</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.370056971857152e-06</v>
+        <v>0.0001567719778518606</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.688059300321836</v>
+        <v>9.117490145124966</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001567719778518606</v>
+        <v>1.336959196301473</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.117490145124966</v>
+        <v>0.01303223919979579</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.336959196301473</v>
+        <v>2.955419758972677</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01303223919979579</v>
+        <v>0.9569812865745777</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.955419758972677</v>
+        <v>1.786744770107797</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9569812865745777</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.786744770107797</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.169687454684876</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>1.806221981965269e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2024582128391367</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.482795189096217</v>
+        <v>1.526268233229127e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.005988059766096797</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.526268233229127e-06</v>
+        <v>0.1343949512917271</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.005988059766096797</v>
+        <v>0.01805767749079773</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1343949512917271</v>
+        <v>1.67521571679758</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01805767749079773</v>
+        <v>1.49692774627355</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.603074498685251</v>
+        <v>4.271276612628228</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.49692774627355</v>
+        <v>3.394641888521386e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.271276612628228</v>
+        <v>48100798.87329959</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.394641888521386e-15</v>
+        <v>2.313544817963726e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>48100798.87329959</v>
+        <v>7.85413830556775</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.313544817963726e-06</v>
+        <v>0.0001839113656711848</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.85413830556775</v>
+        <v>9.064442835539307</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001839113656711848</v>
+        <v>1.509604526563442</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.064442835539307</v>
+        <v>0.01511091623907558</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.509604526563442</v>
+        <v>2.861088163604056</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01511091623907558</v>
+        <v>0.9567724759466111</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.861088163604056</v>
+        <v>1.782358272268808</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9567724759466111</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.782358272268808</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1660276852884525</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>1.813474992536412e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1734440990104578</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.510681273129673</v>
+        <v>1.528260165010187e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.01521170011820892</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.528260165010187e-06</v>
+        <v>0.1042175333981735</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01521170011820892</v>
+        <v>0.01107486308480173</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1042175333981735</v>
+        <v>1.679664394882384</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01107486308480173</v>
+        <v>1.433101124736545</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.610405865081439</v>
+        <v>4.612483686116571</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.433101124736545</v>
+        <v>2.839655437028416e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.612483686116571</v>
+        <v>55671203.64310577</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.839655437028416e-15</v>
+        <v>1.994782734543004e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>55671203.64310577</v>
+        <v>8.800895580673917</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.994782734543004e-06</v>
+        <v>0.0001738777771284458</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8.800895580673917</v>
+        <v>10.7126132228352</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001738777771284458</v>
+        <v>1.19633641710136</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.7126132228352</v>
+        <v>0.01995422797202965</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.19633641710136</v>
+        <v>2.829993211231959</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01995422797202965</v>
+        <v>0.9549307218935111</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.829993211231959</v>
+        <v>1.764345913579485</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9549307218935111</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.764345913579485</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1982825657978826</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>1.815682981974036e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1241690026586274</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.527455019228982</v>
+        <v>1.531585197888127e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.02085999702814959</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.531585197888127e-06</v>
+        <v>0.08831867921513961</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02085999702814959</v>
+        <v>0.008228512534859617</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08831867921513961</v>
+        <v>1.716686295144815</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008228512534859617</v>
+        <v>1.55418284409604</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.658128066464222</v>
+        <v>3.835990468571183</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.55418284409604</v>
+        <v>2.564824821203793e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.835990468571183</v>
+        <v>59985240.28925817</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.564824821203793e-15</v>
+        <v>1.871545147332211e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>59985240.28925817</v>
+        <v>9.228827186382599</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.871545147332211e-06</v>
+        <v>0.0001603270601866914</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>9.228827186382599</v>
+        <v>13.29631679867296</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001603270601866914</v>
+        <v>0.9998976726571428</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>13.29631679867296</v>
+        <v>0.02834454810344992</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0.9998976726571428</v>
+        <v>2.837295716929172</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02834454810344992</v>
+        <v>0.9568730457028191</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.837295716929172</v>
+        <v>1.741243165121722</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9568730457028191</v>
+        <v>30</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.741243165121722</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2457851563550166</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>1.809782889841532e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.06924750075737941</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.523501478003355</v>
+        <v>1.535687916928824e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.02402581224373869</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.535687916928824e-06</v>
+        <v>0.08224667668606986</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02402581224373869</v>
+        <v>0.00733971099157984</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08224667668606986</v>
+        <v>1.804352180594665</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00733971099157984</v>
+        <v>1.468394720691049</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.761534726747752</v>
+        <v>4.164755705124822</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.468394720691049</v>
+        <v>2.418120062675959e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.164755705124822</v>
+        <v>58471613.17646534</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.418120062675959e-15</v>
+        <v>2.012968606174842e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>58471613.17646534</v>
+        <v>8.267382131584297</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.012968606174842e-06</v>
+        <v>0.0001732209017946527</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.267382131584297</v>
+        <v>14.28746182091218</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001732209017946527</v>
+        <v>1.097075927897154</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>14.28746182091218</v>
+        <v>0.03535985382325251</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.097075927897154</v>
+        <v>3.001749911838548</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03535985382325251</v>
+        <v>0.9584415415178941</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.001749911838548</v>
+        <v>1.574539571561101</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9584415415178941</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.574539571561101</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3079324073485848</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>1.797086307031502e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0150653818385315</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.504180346179546</v>
+        <v>1.540214642271453e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.02606410837318344</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.540214642271453e-06</v>
+        <v>0.08029745331651701</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02606410837318344</v>
+        <v>0.007126296523596857</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08029745331651701</v>
+        <v>1.831103600835682</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007126296523596857</v>
+        <v>1.49155953583252</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.79452193087372</v>
+        <v>4.318066395654894</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.49155953583252</v>
+        <v>1.839508154735863e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.318066395654894</v>
+        <v>75017884.32048459</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.839508154735863e-15</v>
+        <v>1.585356186432413e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>75017884.32048459</v>
+        <v>10.35216871175992</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.585356186432413e-06</v>
+        <v>0.0001903129518515034</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>10.35216871175992</v>
+        <v>12.78197315938571</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001903129518515034</v>
+        <v>1.12935552607884</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.78197315938571</v>
+        <v>0.03109310890077954</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.12935552607884</v>
+        <v>2.870723729199801</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03109310890077954</v>
+        <v>0.9596104760266009</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.870723729199801</v>
+        <v>1.579925021590301</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9596104760266009</v>
+        <v>29</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.579925021590301</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3300906694575608</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>1.779198014827976e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03742512573719387</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.474343321092733</v>
+        <v>1.545044661415106e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.02792199548484765</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.545044661415106e-06</v>
+        <v>0.07978242701080986</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02792199548484765</v>
+        <v>0.007144686079679209</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07978242701080986</v>
+        <v>1.845323369096274</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007144686079679209</v>
+        <v>1.478495443706026</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.811211828531158</v>
+        <v>4.949566461011115</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.478495443706026</v>
+        <v>1.536197368010714e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.949566461011115</v>
+        <v>89132392.36836119</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.536197368010714e-15</v>
+        <v>1.338404374245753e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>89132392.36836119</v>
+        <v>12.20444806187186</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.338404374245753e-06</v>
+        <v>0.0002162576119383394</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>12.20444806187186</v>
+        <v>12.09090197136138</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002162576119383394</v>
+        <v>1.099241333763252</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.09090197136138</v>
+        <v>0.03161468093011595</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.099241333763252</v>
+        <v>2.438674636822596</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03161468093011595</v>
+        <v>0.9609276634856114</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.438674636822596</v>
+        <v>1.591289619999942</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9609276634856114</v>
+        <v>29</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.591289619999942</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2868570923414274</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>1.757979794217892e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.08964268437450655</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.43713071534681</v>
+        <v>1.550142467886992e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.02971986151078667</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.550142467886992e-06</v>
+        <v>0.08045499622391532</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02971986151078667</v>
+        <v>0.007355919106840803</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08045499622391532</v>
+        <v>1.860433866223596</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007355919106840803</v>
+        <v>1.518937751813559</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.839554535996735</v>
+        <v>4.348370628789364</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.518937751813559</v>
+        <v>1.435271297485859e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.348370628789364</v>
+        <v>95340209.71274152</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.435271297485859e-15</v>
+        <v>1.255506286952035e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>95340209.71274152</v>
+        <v>13.04626529671789</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.255506286952035e-06</v>
+        <v>0.0002335955683806073</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.04626529671789</v>
+        <v>12.9818957131647</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002335955683806073</v>
+        <v>1.042242007623924</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.9818957131647</v>
+        <v>0.03936777151031238</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.042242007623924</v>
+        <v>2.243231925131167</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03936777151031238</v>
+        <v>0.9616231786634437</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.243231925131167</v>
+        <v>1.494603564965584</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616231786634437</v>
+        <v>29</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.494603564965584</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2762987077175998</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>1.735955248209785e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1445896851846132</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.394246007280682</v>
+        <v>1.555511870393813e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.03192736361051538</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.555511870393813e-06</v>
+        <v>0.08232993487021552</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03192736361051538</v>
+        <v>0.007796003850404366</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08232993487021552</v>
+        <v>1.855937124947094</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.007796003850404366</v>
+        <v>1.493067240449182</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.835456729687103</v>
+        <v>4.297500219045104</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.493067240449182</v>
+        <v>2.078058485000257e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.297500219045104</v>
+        <v>65587754.61780662</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.078058485000257e-15</v>
+        <v>1.824499984068211e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>65587754.61780662</v>
+        <v>8.939295477021881</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.824499984068211e-06</v>
+        <v>0.0002510883815750076</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.939295477021881</v>
+        <v>13.81707380378202</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002510883815750076</v>
+        <v>1.021441592203652</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.81707380378202</v>
+        <v>0.04793566671486484</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.021441592203652</v>
+        <v>2.168139739401085</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04793566671486484</v>
+        <v>0.9608028932855635</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.168139739401085</v>
+        <v>1.497690445746425</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9608028932855635</v>
+        <v>29</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.497690445746425</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2559693598017722</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>1.715164088245729e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.204433696248681</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.347575727936644</v>
+        <v>1.56131683714247e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.03573090160106033</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.56131683714247e-06</v>
+        <v>0.08643668297531389</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03573090160106033</v>
+        <v>0.008743779158891345</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08643668297531389</v>
+        <v>1.837294452117326</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008743779158891345</v>
+        <v>1.43852136057135</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.81232810247181</v>
+        <v>4.00442764464646</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.43852136057135</v>
+        <v>2.960328467716464e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.00442764464646</v>
+        <v>46728296.49156044</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.960328467716464e-15</v>
+        <v>2.545635164110814e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>46728296.49156044</v>
+        <v>6.463976951615376</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.545635164110814e-06</v>
+        <v>0.0002605628268020407</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6.463976951615376</v>
+        <v>14.35485588647056</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002605628268020407</v>
+        <v>0.9947632521257953</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>14.35485588647056</v>
+        <v>0.05369206790872411</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9947632521257953</v>
+        <v>2.074212319469966</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.05369206790872411</v>
+        <v>0.9607022727098887</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.074212319469966</v>
+        <v>1.52360443517864</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9607022727098887</v>
+        <v>29</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.52360443517864</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2134997357707954</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>1.697411720810567e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2673019372121675</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.299495561006934</v>
+        <v>1.56784529300073e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.04088182333762874</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.56784529300073e-06</v>
+        <v>0.09259452580450325</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04088182333762874</v>
+        <v>0.0102401821677716</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09259452580450325</v>
+        <v>1.718803240501554</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0102401821677716</v>
+        <v>1.465474064524343</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.657306992435477</v>
+        <v>4.070111272482359</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.465474064524343</v>
+        <v>2.847558132016847e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.070111272482359</v>
+        <v>53199586.19518945</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.847558132016847e-15</v>
+        <v>2.095001607891541e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>53199586.19518945</v>
+        <v>8.059147553388804</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.095001607891541e-06</v>
+        <v>0.0002441468455190107</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.059147553388804</v>
+        <v>14.04542850739615</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002441468455190107</v>
+        <v>0.9820112991503934</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>14.04542850739615</v>
+        <v>0.04816383992937119</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.9820112991503934</v>
+        <v>2.116273048245205</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04816383992937119</v>
+        <v>0.9548525086935086</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.116273048245205</v>
+        <v>1.755250522873891</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9548525086935086</v>
+        <v>30</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.755250522873891</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1830779061592301</v>
       </c>
     </row>
@@ -5681,72 +5573,66 @@
         <v>1.68446921221811e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.3264807387582866</v>
+        <v>5.134076921786744e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.247443490757</v>
+        <v>1.575166655853919e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.134076921786744e-07</v>
+        <v>0.04566498961922346</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.575166655853919e-06</v>
+        <v>0.09778249622501946</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04566498961922346</v>
+        <v>0.01164240125010996</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09778249622501946</v>
+        <v>1.694818967075733</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01164240125010996</v>
+        <v>1.497487434539239</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.639808775749069</v>
+        <v>4.255634378399695</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.497487434539239</v>
+        <v>2.984209368206844e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.255634378399695</v>
+        <v>50759267.49988062</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.984209368206844e-15</v>
+        <v>2.175993232932153e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>50759267.49988062</v>
+        <v>7.688825097442005</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.175993232932153e-06</v>
+        <v>0.0002000527890727604</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7.688825097442005</v>
+        <v>10.34429477484243</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002000527890727604</v>
+        <v>1.377386471914783</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.34429477484243</v>
+        <v>0.0214065355426391</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.377386471914783</v>
+        <v>2.753743423001756</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0214065355426391</v>
+        <v>0.952337566497434</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.753743423001756</v>
+        <v>1.7981656525093</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.952337566497434</v>
+        <v>30</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.7981656525093</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1586373814704214</v>
       </c>
     </row>
@@ -5761,72 +5647,66 @@
         <v>1.677258181143931e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.3748858474103235</v>
+        <v>5.135206333839935e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.184685217884658</v>
+        <v>1.583185426281715e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.135206333839935e-07</v>
+        <v>0.04958183024938753</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.583185426281715e-06</v>
+        <v>0.1009638451482074</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04958183024938753</v>
+        <v>0.01265015585430826</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1009638451482074</v>
+        <v>1.604898061274775</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01265015585430826</v>
+        <v>1.474853554307577</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.538633981519057</v>
+        <v>5.172213989763015</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.474853554307577</v>
+        <v>5.119379924680536e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.172213989763015</v>
+        <v>28735276.06212857</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.119379924680536e-15</v>
+        <v>3.636595820127866e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>28735276.06212857</v>
+        <v>4.227154376509183</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.636595820127866e-06</v>
+        <v>0.0001836157417317916</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4.227154376509183</v>
+        <v>8.833746157057471</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001836157417317916</v>
+        <v>1.731571873674797</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.833746157057471</v>
+        <v>0.01432846747348201</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.731571873674797</v>
+        <v>2.979983605980002</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01432846747348201</v>
+        <v>0.9451806607641179</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.979983605980002</v>
+        <v>1.875935169688639</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9451806607641179</v>
+        <v>11</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.875935169688639</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.149637420161778</v>
       </c>
     </row>
@@ -5841,72 +5721,66 @@
         <v>1.67320208906955e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4110326771514659</v>
+        <v>5.369497492106961e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.109034031541296</v>
+        <v>1.591722485922557e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.369497492106961e-07</v>
+        <v>0.05216769292214994</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.591722485922557e-06</v>
+        <v>0.1016086177323241</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05216769292214994</v>
+        <v>0.0130453620983328</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1016086177323241</v>
+        <v>1.555486122070561</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0130453620983328</v>
+        <v>1.478989656352621</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.485684403541468</v>
+        <v>4.467464098018665</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.478989656352621</v>
+        <v>6.861960095753454e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.467464098018665</v>
+        <v>22060322.70445672</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.861960095753454e-15</v>
+        <v>4.61299570324147e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>22060322.70445672</v>
+        <v>3.339426663439218</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.61299570324147e-06</v>
+        <v>0.0001672043487323061</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.339426663439218</v>
+        <v>9.648751050962479</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001672043487323061</v>
+        <v>1.365547304306331</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.648751050962479</v>
+        <v>0.01556645681223077</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.365547304306331</v>
+        <v>2.946877297755086</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01556645681223077</v>
+        <v>0.9416436989196005</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.946877297755086</v>
+        <v>1.861011751021152</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9416436989196005</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.861011751021152</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1522355531826368</v>
       </c>
     </row>
@@ -5921,72 +5795,66 @@
         <v>1.66875683381808e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4382782438167206</v>
+        <v>5.520713112861838e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.025121423671308</v>
+        <v>1.600604047416068e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.520713112861838e-07</v>
+        <v>0.05403747031333521</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.600604047416068e-06</v>
+        <v>0.1016386723120358</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05403747031333521</v>
+        <v>0.01325047657992546</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1016386723120358</v>
+        <v>1.537868912502265</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01325047657992546</v>
+        <v>1.482065281991768</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.463571421371424</v>
+        <v>4.338285124133034</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.482065281991768</v>
+        <v>7.276694580895285e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.338285124133034</v>
+        <v>20821693.5534089</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.276694580895285e-15</v>
+        <v>4.817441937846034e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>20821693.5534089</v>
+        <v>3.154759434246947</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.817441937846034e-06</v>
+        <v>0.0001682026226577421</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.154759434246947</v>
+        <v>11.42498714897277</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001682026226577421</v>
+        <v>1.097917971159892</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.42498714897277</v>
+        <v>0.02195554407015934</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.097917971159892</v>
+        <v>2.729892144216763</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02195554407015934</v>
+        <v>0.9409653882429007</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.729892144216763</v>
+        <v>1.897002789585882</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9409653882429007</v>
+        <v>11</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.897002789585882</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1597276313316168</v>
       </c>
     </row>
@@ -6001,72 +5869,66 @@
         <v>1.662095306079496e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4589050634979591</v>
+        <v>5.630446253867605e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9377174754947868</v>
+        <v>1.609735378761602e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.630446253867605e-07</v>
+        <v>0.05559116733307361</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.609735378761602e-06</v>
+        <v>0.1016654288389015</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05559116733307361</v>
+        <v>0.01342636261355851</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1016654288389015</v>
+        <v>1.515500254815492</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01342636261355851</v>
+        <v>1.48690279529805</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.439851448227023</v>
+        <v>4.308578931333285</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.48690279529805</v>
+        <v>7.377381178771313e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.308578931333285</v>
+        <v>20472486.97405764</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.377381178771313e-15</v>
+        <v>4.850785136645008e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>20472486.97405764</v>
+        <v>3.09202808753968</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.850785136645008e-06</v>
+        <v>0.0001764289143050337</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3.09202808753968</v>
+        <v>12.1419323586991</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001764289143050337</v>
+        <v>1.06861044338296</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.1419323586991</v>
+        <v>0.02601030111093867</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.06861044338296</v>
+        <v>2.550135793760096</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02601030111093867</v>
+        <v>0.9408051186876162</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.550135793760096</v>
+        <v>1.907466640941027</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9408051186876162</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.907466640941027</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1629181359125394</v>
       </c>
     </row>
@@ -6081,72 +5943,66 @@
         <v>1.652391593103685e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4725674098405648</v>
+        <v>5.748899747197299e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.8505490641147082</v>
+        <v>1.619094045054231e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.748899747197299e-07</v>
+        <v>0.05740520915862027</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.619094045054231e-06</v>
+        <v>0.1018331941144229</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.05740520915862027</v>
+        <v>0.01366538459022415</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1018331941144229</v>
+        <v>1.487810067111782</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01366538459022415</v>
+        <v>1.472692733642752</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.414764839721972</v>
+        <v>4.305445470846434</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.472692733642752</v>
+        <v>7.388123456029695e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.305445470846434</v>
+        <v>20919991.69362492</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.388123456029695e-15</v>
+        <v>4.667463020247066e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>20919991.69362492</v>
+        <v>3.233383065628396</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.667463020247066e-06</v>
+        <v>0.0001693771206562125</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3.233383065628396</v>
+        <v>10.7591136991532</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001693771206562125</v>
+        <v>1.183856584870353</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.7591136991532</v>
+        <v>0.01960684609481817</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.183856584870353</v>
+        <v>2.810224498647849</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01960684609481817</v>
+        <v>0.9389528133013351</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.810224498647849</v>
+        <v>1.863977037635443</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9389528133013351</v>
+        <v>3</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.863977037635443</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1582884381120237</v>
       </c>
     </row>
@@ -6161,72 +6017,66 @@
         <v>1.639141781980094e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.47720063091708</v>
+        <v>5.828260230730411e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7683013364516773</v>
+        <v>1.628690388608737e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.828260230730411e-07</v>
+        <v>0.05900775769925322</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.628690388608737e-06</v>
+        <v>0.1021970298627858</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05900775769925322</v>
+        <v>0.0139265742737331</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1021970298627858</v>
+        <v>1.451095851540992</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0139265742737331</v>
+        <v>1.46824973339175</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.375618208625428</v>
+        <v>3.998311076558045</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.46824973339175</v>
+        <v>8.566771242912054e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.998311076558045</v>
+        <v>19112926.16372275</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>8.566771242912054e-15</v>
+        <v>5.070252570405647e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>19112926.16372275</v>
+        <v>3.129475344140447</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.070252570405647e-06</v>
+        <v>0.00015692881146025</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3.129475344140447</v>
+        <v>8.797074393468444</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.00015692881146025</v>
+        <v>1.471279860112865</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.797074393468444</v>
+        <v>0.01214448813224066</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.471279860112865</v>
+        <v>3.063547413089208</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01214448813224066</v>
+        <v>0.9353317490510011</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.063547413089208</v>
+        <v>1.87744240822248</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9353317490510011</v>
+        <v>3</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.87744240822248</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1615297090587005</v>
       </c>
     </row>
@@ -6241,72 +6091,66 @@
         <v>1.619546080501707e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.4769639274593427</v>
+        <v>5.828988290334026e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.7004490648914086</v>
+        <v>1.638362552910445e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.828988290334026e-07</v>
+        <v>0.05949467060483454</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.638362552910445e-06</v>
+        <v>0.1036348097187619</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05949467060483454</v>
+        <v>0.0142800612815754</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1036348097187619</v>
+        <v>1.429343630914431</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0142800612815754</v>
+        <v>1.458252958879946</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.352774298855506</v>
+        <v>3.823618008635059</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.458252958879946</v>
+        <v>9.367448918094856e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.823618008635059</v>
+        <v>17768785.43448242</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>9.367448918094856e-15</v>
+        <v>5.40504982777367e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>17768785.43448242</v>
+        <v>2.957582172186283</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.40504982777367e-06</v>
+        <v>0.0001430745197184845</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2.957582172186283</v>
+        <v>8.58036403579626</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001430745197184845</v>
+        <v>1.408236943712359</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.58036403579626</v>
+        <v>0.01053352485803792</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.408236943712359</v>
+        <v>3.111291343152295</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01053352485803792</v>
+        <v>0.9306493625417914</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.111291343152295</v>
+        <v>1.884574597069156</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9306493625417914</v>
+        <v>3</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.884574597069156</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1707368822450848</v>
       </c>
     </row>
@@ -6321,72 +6165,66 @@
         <v>1.591501036124525e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4754619439722921</v>
+        <v>5.820483493437559e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.653239989394613</v>
+        <v>1.647915978309752e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.820483493437559e-07</v>
+        <v>0.05936310451320826</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.647915978309752e-06</v>
+        <v>0.1064772721907592</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05936310451320826</v>
+        <v>0.01486144578243787</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1064772721907592</v>
+        <v>1.415778636280441</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01486144578243787</v>
+        <v>1.440727093197474</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.339676336364322</v>
+        <v>3.83145877506362</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.440727093197474</v>
+        <v>9.329148714088753e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.83145877506362</v>
+        <v>18407834.10296379</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>9.329148714088753e-15</v>
+        <v>5.227498826047134e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>18407834.10296379</v>
+        <v>3.161166708027847</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.227498826047134e-06</v>
+        <v>0.0001447399503644061</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3.161166708027847</v>
+        <v>10.3888911779356</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001447399503644061</v>
+        <v>1.170276521149451</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.3888911779356</v>
+        <v>0.01562164677381447</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.170276521149451</v>
+        <v>2.898802029473698</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01562164677381447</v>
+        <v>0.9287198791138284</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.898802029473698</v>
+        <v>1.896932230891841</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9287198791138284</v>
+        <v>3</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.896932230891841</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1797779235077558</v>
       </c>
     </row>
@@ -6401,72 +6239,66 @@
         <v>1.555326996876655e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4724842458208225</v>
+        <v>5.770863999546695e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.6273891812589452</v>
+        <v>1.657224396260776e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.770863999546695e-07</v>
+        <v>0.05884158891874212</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.657224396260776e-06</v>
+        <v>0.1104246216436316</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05884158891874212</v>
+        <v>0.01565579375619196</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1104246216436316</v>
+        <v>1.424148471854233</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01565579375619196</v>
+        <v>1.431886736807466</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.347228080468986</v>
+        <v>3.886982573719249</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.431886736807466</v>
+        <v>9.064526920941402e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.886982573719249</v>
+        <v>19566939.09431234</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.064526920941402e-15</v>
+        <v>5.011489660283835e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>19566939.09431234</v>
+        <v>3.4704910560799</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.011489660283835e-06</v>
+        <v>0.0001433273602600678</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.4704910560799</v>
+        <v>10.88527346248337</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001433273602600678</v>
+        <v>1.1522503833819</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.88527346248337</v>
+        <v>0.01698274115272626</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.1522503833819</v>
+        <v>2.843363707414474</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01698274115272626</v>
+        <v>0.9283349570624903</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.843363707414474</v>
+        <v>1.887828609698343</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9283349570624903</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.887828609698343</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1855668490844965</v>
       </c>
     </row>
@@ -6481,72 +6313,66 @@
         <v>1.512328725102294e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4666477357889934</v>
+        <v>5.69079405899681e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6226050634290354</v>
+        <v>1.666206704826106e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.69079405899681e-07</v>
+        <v>0.05823007168155551</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.666206704826106e-06</v>
+        <v>0.115062800305429</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05823007168155551</v>
+        <v>0.01662996433535116</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.115062800305429</v>
+        <v>1.429761604718834</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01662996433535116</v>
+        <v>1.417955875048139</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.351223318292009</v>
+        <v>3.990307868287493</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.417955875048139</v>
+        <v>8.601169796846243e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.990307868287493</v>
+        <v>20681425.0556618</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>8.601169796846243e-15</v>
+        <v>4.752878698755818e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>20681425.0556618</v>
+        <v>3.678903891140752</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.752878698755818e-06</v>
+        <v>0.0001285264197319976</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.678903891140752</v>
+        <v>9.500063930432935</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001285264197319976</v>
+        <v>1.234952724290124</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.500063930432935</v>
+        <v>0.01159966549958157</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.234952724290124</v>
+        <v>3.120499896794034</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01159966549958157</v>
+        <v>0.9293582494183109</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.120499896794034</v>
+        <v>1.896324259445625</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9293582494183109</v>
+        <v>8</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.896324259445625</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1878086579172603</v>
       </c>
     </row>
@@ -6561,72 +6387,66 @@
         <v>1.463837038011121e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.455447498807251</v>
+        <v>5.580828100361146e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.6419973643991135</v>
+        <v>1.674829880775746e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.580828100361146e-07</v>
+        <v>0.05759137805792899</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.674829880775746e-06</v>
+        <v>0.1201788274974284</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05759137805792899</v>
+        <v>0.01775926221513632</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1201788274974284</v>
+        <v>1.43228907582288</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01775926221513632</v>
+        <v>1.393929846361303</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.354635861732605</v>
+        <v>4.182782172791748</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.393929846361303</v>
+        <v>7.827802030400081e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.182782172791748</v>
+        <v>22631401.16886303</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.827802030400081e-15</v>
+        <v>4.341284720817731e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>22631401.16886303</v>
+        <v>4.009246139950354</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.341284720817731e-06</v>
+        <v>0.0001180954572396625</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.009246139950354</v>
+        <v>7.963515281211075</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001180954572396625</v>
+        <v>1.396381913717909</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.963515281211075</v>
+        <v>0.00748932759153783</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.396381913717909</v>
+        <v>3.268342190259658</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00748932759153783</v>
+        <v>0.9280971291419055</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.268342190259658</v>
+        <v>1.890549076386699</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9280971291419055</v>
+        <v>8</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.890549076386699</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1978434359960058</v>
       </c>
     </row>
@@ -6641,72 +6461,66 @@
         <v>1.41205091665142e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.438940323873799</v>
+        <v>5.413445383210066e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.6840324311341144</v>
+        <v>1.683052060530865e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.413445383210066e-07</v>
+        <v>0.056677357526674</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.683052060530865e-06</v>
+        <v>0.1253177479646646</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.056677357526674</v>
+        <v>0.01891571848039754</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1253177479646646</v>
+        <v>1.435808704209486</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01891571848039754</v>
+        <v>1.362508922166098</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.359073819554811</v>
+        <v>4.578460977626167</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.362508922166098</v>
+        <v>6.533280374254572e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.578460977626167</v>
+        <v>27073715.98153845</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>6.533280374254572e-15</v>
+        <v>3.63435165884298e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>27073715.98153845</v>
+        <v>4.788803682451757</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.63435165884298e-06</v>
+        <v>0.0001178495208849509</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.788803682451757</v>
+        <v>7.863954206263029</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001178495208849509</v>
+        <v>1.49778567062982</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.863954206263029</v>
+        <v>0.007288023643778672</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.49778567062982</v>
+        <v>3.250697819095818</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007288023643778672</v>
+        <v>0.9283188393864963</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.250697819095818</v>
+        <v>1.872309786400576</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9283188393864963</v>
+        <v>8</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.872309786400576</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2097657068395441</v>
       </c>
     </row>
@@ -6721,72 +6535,66 @@
         <v>1.360796410208913e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.4231679343575396</v>
+        <v>5.16717415784314e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7312315849613662</v>
+        <v>1.690820152399853e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.16717415784314e-07</v>
+        <v>0.05536994677856291</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.690820152399853e-06</v>
+        <v>0.1294968015826676</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05536994677856291</v>
+        <v>0.01983309865722672</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1294968015826676</v>
+        <v>1.450374280057965</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01983309865722672</v>
+        <v>1.368319505813976</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.372982362691093</v>
+        <v>4.891431168116135</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.368319505813976</v>
+        <v>4.632396948426876e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.891431168116135</v>
+        <v>37818160.99170511</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.632396948426876e-15</v>
+        <v>2.607316860567042e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>37818160.99170511</v>
+        <v>6.625315730200092</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.607316860567042e-06</v>
+        <v>0.0001237210212556574</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>6.625315730200092</v>
+        <v>8.977256047466907</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001237210212556574</v>
+        <v>1.407195465212027</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.977256047466907</v>
+        <v>0.009970816430404674</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.407195465212027</v>
+        <v>3.092527220676779</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009970816430404674</v>
+        <v>0.9282354249069857</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.092527220676779</v>
+        <v>1.875763121915732</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9282354249069857</v>
+        <v>8</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.875763121915732</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2175190713890786</v>
       </c>
     </row>
@@ -6801,72 +6609,66 @@
         <v>1.313576036472162e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.4149334849831273</v>
+        <v>4.916897585078555e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7635357992951204</v>
+        <v>1.698162255040011e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.916897585078555e-07</v>
+        <v>0.05468313850021468</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.698162255040011e-06</v>
+        <v>0.1330669887049495</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05468313850021468</v>
+        <v>0.02069549899571322</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1330669887049495</v>
+        <v>1.469747453021375</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02069549899571322</v>
+        <v>1.581200327646501</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.393692421094564</v>
+        <v>4.093866537667829</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.581200327646501</v>
+        <v>4.75075343981938e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.093866537667829</v>
+        <v>35584002.99647763</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.75075343981938e-15</v>
+        <v>2.818468540969658e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>35584002.99647763</v>
+        <v>6.015505050477714</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.818468540969658e-06</v>
+        <v>0.0001075339881641787</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>6.015505050477714</v>
+        <v>8.353872573023091</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001075339881641787</v>
+        <v>1.280051341524311</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.353872573023091</v>
+        <v>0.007504494537246227</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.280051341524311</v>
+        <v>3.152548954745527</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007504494537246227</v>
+        <v>0.9323472883362678</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.152548954745527</v>
+        <v>1.820439899153905</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9323472883362678</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.820439899153905</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2347607589634401</v>
       </c>
     </row>
@@ -7243,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566241034593017</v>
+        <v>1.590914927730928</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.586251830435337</v>
@@ -7332,7 +7134,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.602312648431912</v>
+        <v>1.625664199859947</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.571446504957892</v>
@@ -7421,7 +7223,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.634953113544466</v>
+        <v>1.654011373318292</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.45221378311042</v>
@@ -7510,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638228105720219</v>
+        <v>1.65495085773511</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.350330184504379</v>
@@ -7599,7 +7401,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674532598232046</v>
+        <v>1.68330571814869</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.422211490708734</v>
@@ -7688,7 +7490,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.669780416099835</v>
+        <v>1.687015755772956</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.549923449740453</v>
@@ -7777,7 +7579,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680666995395075</v>
+        <v>1.6980958278324</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.587494667857066</v>
@@ -7866,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.724892579126903</v>
+        <v>1.741200136320038</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.707855508403636</v>
@@ -7955,7 +7757,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.789327000242623</v>
+        <v>1.806349582379949</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.307463625625343</v>
@@ -8044,7 +7846,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.774642980917383</v>
+        <v>1.794030099720455</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.67728450605488</v>
@@ -8133,7 +7935,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.779219244851794</v>
+        <v>1.79385246643889</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.615221316971138</v>
@@ -8222,7 +8024,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.780904420927102</v>
+        <v>1.792825845028326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.680995380255862</v>
@@ -8311,7 +8113,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.777189659118946</v>
+        <v>1.789798308068337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.818460672395954</v>
@@ -8400,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.803024963518063</v>
+        <v>1.812269447726168</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.641347069585378</v>
@@ -8489,7 +8291,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.80793199538322</v>
+        <v>1.810583714566964</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.624411346010646</v>
@@ -8578,7 +8380,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.777984102912316</v>
+        <v>1.78483642393973</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.538985132098937</v>
@@ -8667,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.731336018133499</v>
+        <v>1.745069981112079</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.602311413574673</v>
@@ -8756,7 +8558,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.717756455714655</v>
+        <v>1.731653530240479</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.509300772172371</v>
@@ -8845,7 +8647,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.718279308792037</v>
+        <v>1.731198515454012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.494210939855287</v>
@@ -8934,7 +8736,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.740327552905848</v>
+        <v>1.75167400760126</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.303732617394422</v>
@@ -9023,7 +8825,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.734558039609508</v>
+        <v>1.742980488471188</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.894884657747731</v>
@@ -9112,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692615133947301</v>
+        <v>1.706343284666876</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.739283113449889</v>
@@ -9201,7 +9003,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.687158602868353</v>
+        <v>1.699211906828888</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.798754386037487</v>
@@ -9290,7 +9092,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.676894144003499</v>
+        <v>1.689542386083474</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342464411774367</v>
@@ -9379,7 +9181,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.682510201752063</v>
+        <v>1.710516204024586</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.387452291622859</v>
@@ -9468,7 +9270,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.682647782445026</v>
+        <v>1.717380020799379</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.385501403180954</v>
@@ -9557,7 +9359,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.692629719404256</v>
+        <v>1.730871941396704</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.508390727241811</v>
@@ -9646,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.723982309157163</v>
+        <v>1.763865706676022</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.566011157483676</v>
@@ -9735,7 +9537,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.739872563805488</v>
+        <v>1.781721368654865</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.656206116147748</v>
@@ -9824,7 +9626,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.747249294274176</v>
+        <v>1.792438892700931</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.668772774530045</v>
@@ -9913,7 +9715,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770243007402182</v>
+        <v>1.814111432665503</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.591320597479126</v>
@@ -10002,7 +9804,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775327976680232</v>
+        <v>1.814508892107175</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.72448837535296</v>
@@ -10091,7 +9893,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.783164673712024</v>
+        <v>1.82154117799463</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.729750302013584</v>
@@ -10180,7 +9982,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.79131336163615</v>
+        <v>1.826638942218186</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.715378473402843</v>
@@ -10269,7 +10071,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.792860805079962</v>
+        <v>1.828104496492309</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.699349283299729</v>
@@ -10358,7 +10160,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.760051888710112</v>
+        <v>1.79973622580782</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.664414364721444</v>
@@ -10447,7 +10249,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.767968778723717</v>
+        <v>1.807709664225411</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.658058588632459</v>
@@ -10536,7 +10338,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.774998053437745</v>
+        <v>1.813476653631774</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.627120661900647</v>
@@ -10625,7 +10427,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.804456289606547</v>
+        <v>1.827267314335614</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.59528406972006</v>
@@ -10714,7 +10516,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.797788787869464</v>
+        <v>1.808524696688232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.082133602443392</v>
@@ -10803,7 +10605,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.784604102181901</v>
+        <v>1.79228636931987</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.005556763081092</v>
@@ -10892,7 +10694,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.772378182570025</v>
+        <v>1.777353256073412</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.65401485704049</v>
@@ -10981,7 +10783,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.751958328970431</v>
+        <v>1.760689120171594</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.60866624001205</v>
@@ -11070,7 +10872,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.73831802715899</v>
+        <v>1.74698614130511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.801765995164143</v>
@@ -11159,7 +10961,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.73616525483499</v>
+        <v>1.74519126390752</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.741295877565603</v>
@@ -11248,7 +11050,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.733741395779037</v>
+        <v>1.738153093503455</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.775727398632697</v>
@@ -11337,7 +11139,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.764923663855832</v>
+        <v>1.76103410455553</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.788008985252405</v>
@@ -11426,7 +11228,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.763510667989385</v>
+        <v>1.757193982954498</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.737880533893862</v>
@@ -11515,7 +11317,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743263775253065</v>
+        <v>1.742990861303898</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.806466540628656</v>
@@ -11604,7 +11406,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.747177821570168</v>
+        <v>1.744214735752203</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.380545118749697</v>
@@ -11693,7 +11495,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796981331229383</v>
+        <v>1.785123808380458</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.538701753399006</v>
@@ -11782,7 +11584,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.798594429933421</v>
+        <v>1.787966363654832</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.730368993420325</v>
@@ -11871,7 +11673,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.801377102795125</v>
+        <v>1.790326194232427</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.884691144475667</v>
@@ -11960,7 +11762,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.799331483431251</v>
+        <v>1.7930204683375</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.773585024428932</v>
@@ -12049,7 +11851,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.786285223287342</v>
+        <v>1.794731600826489</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.980987195939635</v>
@@ -12138,7 +11940,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.799374239511556</v>
+        <v>1.808998289646922</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.889822932533368</v>
@@ -12227,7 +12029,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.821721948789883</v>
+        <v>1.827127120858921</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.47847484083352</v>
@@ -12316,7 +12118,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.810983722995359</v>
+        <v>1.811636888968588</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.750010862135726</v>
@@ -12405,7 +12207,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.790802263644811</v>
+        <v>1.788172291337951</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.947072204648601</v>
@@ -12494,7 +12296,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.783017772907778</v>
+        <v>1.780489852273849</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.743786972026599</v>
@@ -12583,7 +12385,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.754287777134936</v>
+        <v>1.760490985315507</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.795432473295114</v>
@@ -12672,7 +12474,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.743721171694156</v>
+        <v>1.755297160056627</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.927964959120243</v>
@@ -12761,7 +12563,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.676475085723871</v>
+        <v>1.69839387752412</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.452056364643696</v>
@@ -12850,7 +12652,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.690197935539649</v>
+        <v>1.712110596324401</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.512410738909562</v>
@@ -12939,7 +12741,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.684747161028495</v>
+        <v>1.703675894552636</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.454242600869117</v>
@@ -13028,7 +12830,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.700294486366317</v>
+        <v>1.709927429225107</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.403182520841854</v>
@@ -13117,7 +12919,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.690077287932011</v>
+        <v>1.701230303896414</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.454663674627177</v>
@@ -13206,7 +13008,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.675535053468022</v>
+        <v>1.683916218654949</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.416613584662688</v>
@@ -13295,7 +13097,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.691136022488109</v>
+        <v>1.693217177542122</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.600005859873795</v>
@@ -13384,7 +13186,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.690218405224261</v>
+        <v>1.695053828554294</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.419299843234366</v>
@@ -13473,7 +13275,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.684343426970945</v>
+        <v>1.686990757622739</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.403536212386477</v>
@@ -13562,7 +13364,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.667979325844137</v>
+        <v>1.668109570273022</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.401778031890759</v>
@@ -13651,7 +13453,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.663778414741277</v>
+        <v>1.666968324621511</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.310728789462399</v>
@@ -13740,7 +13542,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.684961440790013</v>
+        <v>1.685395770343383</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.363756408724226</v>
@@ -13829,7 +13631,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.669991289850218</v>
+        <v>1.676968961044214</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.418767042358743</v>
@@ -13918,7 +13720,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.670531422648226</v>
+        <v>1.677133792828368</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.376904253970932</v>
@@ -14204,7 +14006,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.59222627851244</v>
+        <v>1.571982137975995</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.875838784787709</v>
@@ -14293,7 +14095,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.592523116420383</v>
+        <v>1.574747803250774</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.829803211797963</v>
@@ -14382,7 +14184,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599946595937723</v>
+        <v>1.577784600552088</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.614611478438875</v>
@@ -14471,7 +14273,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.590267364238611</v>
+        <v>1.563964452203664</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.792896325143326</v>
@@ -14560,7 +14362,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6003263669064</v>
+        <v>1.571926789740015</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.754260074584784</v>
@@ -14649,7 +14451,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615423866362713</v>
+        <v>1.591878117229575</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.655132439396229</v>
@@ -14738,7 +14540,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620531249644918</v>
+        <v>1.595860025850191</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.70940818092884</v>
@@ -14827,7 +14629,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646037609414187</v>
+        <v>1.615994846856426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.775235385511766</v>
@@ -14916,7 +14718,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.691234150084999</v>
+        <v>1.657493009330813</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.794152303797612</v>
@@ -15005,7 +14807,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.729415249155276</v>
+        <v>1.691744658775615</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.444552820040912</v>
@@ -15094,7 +14896,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.735666506303233</v>
+        <v>1.698241577992659</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.488473842799695</v>
@@ -15183,7 +14985,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.74197903218627</v>
+        <v>1.697632692234224</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.722381443493779</v>
@@ -15272,7 +15074,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721177123723605</v>
+        <v>1.683674104043644</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.920026940024385</v>
@@ -15361,7 +15163,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.737609751524152</v>
+        <v>1.700144398364322</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.157673986080758</v>
@@ -15450,7 +15252,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.742915471928292</v>
+        <v>1.709342478862399</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.324950668847788</v>
@@ -15539,7 +15341,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.750752983882981</v>
+        <v>1.715646830432368</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.352743379998258</v>
@@ -15628,7 +15430,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.761189229270486</v>
+        <v>1.728095989887275</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.107550619787115</v>
@@ -15717,7 +15519,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.744675569443237</v>
+        <v>1.71950032490068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.326807978712828</v>
@@ -15806,7 +15608,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.736084269452866</v>
+        <v>1.716798648626927</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.294617280078083</v>
@@ -15895,7 +15697,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.743531682324319</v>
+        <v>1.722143673294046</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.007056739094626</v>
@@ -15984,7 +15786,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.745030826156721</v>
+        <v>1.726634196275339</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.192155533060036</v>
@@ -16073,7 +15875,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.743681319156392</v>
+        <v>1.730287968334041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.563077385425255</v>
@@ -16162,7 +15964,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.746951046015374</v>
+        <v>1.739735565185135</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.432234914089974</v>
@@ -16251,7 +16053,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717016823204517</v>
+        <v>1.71873017682157</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.314855921219223</v>
@@ -16340,7 +16142,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696937538636349</v>
+        <v>1.702182551665971</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.144794912319159</v>
@@ -16429,7 +16231,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.677584416667208</v>
+        <v>1.690669478131988</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.109015310707826</v>
@@ -16518,7 +16320,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672766554870296</v>
+        <v>1.686749240401523</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.906415071190987</v>
@@ -16607,7 +16409,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.690004618575852</v>
+        <v>1.700097735317731</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.980358995543556</v>
@@ -16696,7 +16498,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688129134653058</v>
+        <v>1.698233116891168</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.123722023943159</v>
@@ -16785,7 +16587,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.687632202412768</v>
+        <v>1.696117672859098</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.034867035860659</v>
@@ -16874,7 +16676,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686845811809608</v>
+        <v>1.695361421103754</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.905817680883764</v>
@@ -16963,7 +16765,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678377349737211</v>
+        <v>1.682075052882063</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.928586008410697</v>
@@ -17052,7 +16854,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.674845807460571</v>
+        <v>1.677678958147629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.087800385257582</v>
@@ -17141,7 +16943,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.69371726517588</v>
+        <v>1.691200640456681</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.028624055816996</v>
@@ -17230,7 +17032,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.68793616909722</v>
+        <v>1.68608448424019</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.994358134138297</v>
@@ -17319,7 +17121,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667025364707805</v>
+        <v>1.657911252386644</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.452468339628893</v>
@@ -17408,7 +17210,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.642476106515465</v>
+        <v>1.640967413381804</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.325980826780512</v>
@@ -17497,7 +17299,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.642414525877273</v>
+        <v>1.636868728596487</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.322705580298425</v>
@@ -17586,7 +17388,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.678229912794168</v>
+        <v>1.663761338629856</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.58702479216513</v>
@@ -17675,7 +17477,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.685295108092527</v>
+        <v>1.664880844593919</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.15100870496396</v>
@@ -17764,7 +17566,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.693606531076221</v>
+        <v>1.666521389310395</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.443340498145094</v>
@@ -17853,7 +17655,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699155662243933</v>
+        <v>1.667018361539084</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.389527307629106</v>
@@ -17942,7 +17744,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703680754231484</v>
+        <v>1.675927770171575</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.511055961378712</v>
@@ -18031,7 +17833,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65740813931668</v>
+        <v>1.638612000941577</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.518803524542951</v>
@@ -18120,7 +17922,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633424654700878</v>
+        <v>1.615979975698036</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.531447229941084</v>
@@ -18209,7 +18011,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608521177055771</v>
+        <v>1.599502658637579</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.508117041087337</v>
@@ -18298,7 +18100,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.606095258110698</v>
+        <v>1.60353515569549</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.515312625670945</v>
@@ -18387,7 +18189,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.612757148036925</v>
+        <v>1.611308422715083</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.53403904176148</v>
@@ -18476,7 +18278,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601226381120661</v>
+        <v>1.601268370696787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.477349323825359</v>
@@ -18565,7 +18367,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.592761684045904</v>
+        <v>1.590149935109261</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.409729511834645</v>
@@ -18654,7 +18456,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613095841160621</v>
+        <v>1.604444122151621</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.443012806651154</v>
@@ -18743,7 +18545,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.595203701791763</v>
+        <v>1.587950944111292</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.396822973237442</v>
@@ -18832,7 +18634,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.57338447165855</v>
+        <v>1.565182787693788</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.569147866797211</v>
@@ -18921,7 +18723,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.564435147770479</v>
+        <v>1.556415791060622</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.36377887360708</v>
@@ -19010,7 +18812,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562797629186619</v>
+        <v>1.557873843767312</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.490929870466106</v>
@@ -19099,7 +18901,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.553583249004071</v>
+        <v>1.548157747506004</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.436661547593797</v>
@@ -19188,7 +18990,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.538842523763092</v>
+        <v>1.533196461168526</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.241913316637749</v>
@@ -19277,7 +19079,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.512036200766147</v>
+        <v>1.503091143817857</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.268009054275163</v>
@@ -19366,7 +19168,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.537805968940405</v>
+        <v>1.529794900741376</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.637156524534344</v>
@@ -19455,7 +19257,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.562124091208419</v>
+        <v>1.552833098600233</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.812369740131412</v>
@@ -19544,7 +19346,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.58069249178927</v>
+        <v>1.569613256398774</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.855664547719933</v>
@@ -19633,7 +19435,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.582116008963979</v>
+        <v>1.568192545511532</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.625728628028901</v>
@@ -19722,7 +19524,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.56799407079396</v>
+        <v>1.558253339658085</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.798622578057627</v>
@@ -19811,7 +19613,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.584018002833218</v>
+        <v>1.577032147240793</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.949295807615599</v>
@@ -19900,7 +19702,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.602521204018731</v>
+        <v>1.598111796073355</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.949976652097895</v>
@@ -19989,7 +19791,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.641883615511655</v>
+        <v>1.634021625652256</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.636360134027705</v>
@@ -20078,7 +19880,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.654860346222266</v>
+        <v>1.651765217107103</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.999545646723714</v>
@@ -20167,7 +19969,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.664910810688208</v>
+        <v>1.657914198274897</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.816209418469408</v>
@@ -20256,7 +20058,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.678509875013958</v>
+        <v>1.667963904471479</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.747235950336113</v>
@@ -20345,7 +20147,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.672353532675471</v>
+        <v>1.657946529640477</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.980286424623834</v>
@@ -20434,7 +20236,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.679328536420957</v>
+        <v>1.665679800242599</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.794959714670167</v>
@@ -20523,7 +20325,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.677128362813954</v>
+        <v>1.659120594589985</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.770227786549858</v>
@@ -20612,7 +20414,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.651675721349183</v>
+        <v>1.644674119998924</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.734078049149393</v>
@@ -20701,7 +20503,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.657890691729876</v>
+        <v>1.641119134123032</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.200950040999754</v>
@@ -20790,7 +20592,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.629950633741402</v>
+        <v>1.631094957837432</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.241506799199911</v>
@@ -20879,7 +20681,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.628346217912758</v>
+        <v>1.625463740056017</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.170780395557769</v>
@@ -21165,7 +20967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.728871362467801</v>
+        <v>1.69467874452239</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.984552928689701</v>
@@ -21254,7 +21056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.738284701111677</v>
+        <v>1.709189518451885</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.120430691543021</v>
@@ -21343,7 +21145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.745838630922995</v>
+        <v>1.703707241801635</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.298395250372475</v>
@@ -21432,7 +21234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.743525912305111</v>
+        <v>1.693663105821147</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.843415352419635</v>
@@ -21521,7 +21323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.742531794008969</v>
+        <v>1.686471416518961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.905827065873315</v>
@@ -21610,7 +21412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.758865709201582</v>
+        <v>1.705101099210814</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.895107434109113</v>
@@ -21699,7 +21501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.755302491481843</v>
+        <v>1.699486906324891</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.658036443531871</v>
@@ -21788,7 +21590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.764456853814363</v>
+        <v>1.706018937092161</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.880050667565369</v>
@@ -21877,7 +21679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.786305339050428</v>
+        <v>1.723644814065431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.980326836976841</v>
@@ -21966,7 +21768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.793954293737592</v>
+        <v>1.728859446130471</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.95127969996394</v>
@@ -22055,7 +21857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.79727727430169</v>
+        <v>1.731364865147946</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.386017962685271</v>
@@ -22144,7 +21946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.799236451981871</v>
+        <v>1.73377436800999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.531898627849205</v>
@@ -22233,7 +22035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.802248210898414</v>
+        <v>1.742418075202448</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.473071046879636</v>
@@ -22322,7 +22124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.804993208520916</v>
+        <v>1.746434773464463</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.802576028655209</v>
@@ -22411,7 +22213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.81195082212735</v>
+        <v>1.755115588784474</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.673384572736782</v>
@@ -22500,7 +22302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.808892894347949</v>
+        <v>1.751573603106258</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.865939977630852</v>
@@ -22589,7 +22391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.815788755765628</v>
+        <v>1.762085022924134</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.245166955067925</v>
@@ -22678,7 +22480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.810097490551755</v>
+        <v>1.765647753777522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.173992602575454</v>
@@ -22767,7 +22569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.809811546843006</v>
+        <v>1.77082819679481</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.266914228713356</v>
@@ -22856,7 +22658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.807116541363569</v>
+        <v>1.772754674044949</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.014113224532506</v>
@@ -22945,7 +22747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.802645896572439</v>
+        <v>1.765342096443052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.558284501437898</v>
@@ -23034,7 +22836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815809200038356</v>
+        <v>1.783897607208446</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.58668892280532</v>
@@ -23123,7 +22925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823251016469657</v>
+        <v>1.794493408980169</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.911877531227323</v>
@@ -23212,7 +23014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.822055337672168</v>
+        <v>1.79071662734376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.549275944103085</v>
@@ -23301,7 +23103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.819735680532881</v>
+        <v>1.79846824699384</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.912371279619012</v>
@@ -23390,7 +23192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.824082649275845</v>
+        <v>1.802411737627116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.737358618992651</v>
@@ -23479,7 +23281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.825470276129741</v>
+        <v>1.800977912589283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.824962500181234</v>
@@ -23568,7 +23370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.838311431665542</v>
+        <v>1.812532818616879</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.68427035894458</v>
@@ -23657,7 +23459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.846922508980394</v>
+        <v>1.823772455462216</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.091076620944046</v>
@@ -23746,7 +23548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.847196230304873</v>
+        <v>1.821301669952892</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.742911276045458</v>
@@ -23835,7 +23637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.84474186956079</v>
+        <v>1.819196280661705</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.833926585799649</v>
@@ -23924,7 +23726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.842038668541105</v>
+        <v>1.818604560545139</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.710453487675657</v>
@@ -24013,7 +23815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.847076463360694</v>
+        <v>1.822154059891838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.878586769785101</v>
@@ -24102,7 +23904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.849716377849163</v>
+        <v>1.819031999480927</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.782886565911542</v>
@@ -24191,7 +23993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.854941038935104</v>
+        <v>1.819616063341126</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.644212303400055</v>
@@ -24280,7 +24082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.847236240634268</v>
+        <v>1.808047696241114</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.248949834321635</v>
@@ -24369,7 +24171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.833076637812598</v>
+        <v>1.788571937568256</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.018481597858098</v>
@@ -24458,7 +24260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.823669642338423</v>
+        <v>1.775887735202388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.637200844108984</v>
@@ -24547,7 +24349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.825479443918251</v>
+        <v>1.772301911917878</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.334061954061201</v>
@@ -24636,7 +24438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817020515843</v>
+        <v>1.75058023114996</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.881245098792947</v>
@@ -24725,7 +24527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.808429856047919</v>
+        <v>1.737002472077696</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.446532857982048</v>
@@ -24814,7 +24616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.797113164678511</v>
+        <v>1.725841501810927</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.769618047703958</v>
@@ -24903,7 +24705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.801055536020948</v>
+        <v>1.732594180942283</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.749312390419013</v>
@@ -24992,7 +24794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.767484572850101</v>
+        <v>1.709895327623804</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.74620516136413</v>
@@ -25081,7 +24883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.759014038053947</v>
+        <v>1.700135687956245</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.701130094812705</v>
@@ -25170,7 +24972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.764409478732107</v>
+        <v>1.707803326702278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.620008078204855</v>
@@ -25259,7 +25061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.758709186863633</v>
+        <v>1.702450512227935</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.671384885513072</v>
@@ -25348,7 +25150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751678111771879</v>
+        <v>1.692167891114726</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.551162018975109</v>
@@ -25437,7 +25239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.750630362923493</v>
+        <v>1.69391166980581</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.701451643442561</v>
@@ -25526,7 +25328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.745935849127917</v>
+        <v>1.678039134265476</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.742594854255417</v>
@@ -25615,7 +25417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.746029865226707</v>
+        <v>1.673343642937868</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.636299532776666</v>
@@ -25704,7 +25506,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.734456005692899</v>
+        <v>1.663631790124468</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.731100029934508</v>
@@ -25793,7 +25595,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.709283475968448</v>
+        <v>1.644476782170016</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.703331985658108</v>
@@ -25882,7 +25684,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.699796035159298</v>
+        <v>1.632695815781785</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.668638526019104</v>
@@ -25971,7 +25773,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.703758911694665</v>
+        <v>1.639533232804287</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.60749614089422</v>
@@ -26060,7 +25862,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.702927158894622</v>
+        <v>1.635808597121509</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.696813864729197</v>
@@ -26149,7 +25951,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.706382767257234</v>
+        <v>1.634768963403817</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.656272805343693</v>
@@ -26238,7 +26040,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.685195670379134</v>
+        <v>1.594969370798494</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.433392627005964</v>
@@ -26327,7 +26129,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.68779912152065</v>
+        <v>1.591379252406199</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.801114265765891</v>
@@ -26416,7 +26218,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.68811766705403</v>
+        <v>1.589144621224311</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.977291336073621</v>
@@ -26505,7 +26307,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.694007494339872</v>
+        <v>1.60049432229783</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.93956717456544</v>
@@ -26594,7 +26396,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.694290303604601</v>
+        <v>1.599527482641547</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.818174476250755</v>
@@ -26683,7 +26485,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.691206082351617</v>
+        <v>1.598797213693853</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.98743596033813</v>
@@ -26772,7 +26574,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.697097226227122</v>
+        <v>1.60645019008591</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.011540760215894</v>
@@ -26861,7 +26663,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.709306545367988</v>
+        <v>1.632559478733946</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.021878207756179</v>
@@ -26950,7 +26752,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.714194440939562</v>
+        <v>1.647444723292262</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.065950609522649</v>
@@ -27039,7 +26841,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.721731670289845</v>
+        <v>1.656307433819589</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.00585961929356</v>
@@ -27128,7 +26930,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.75160095867179</v>
+        <v>1.667831662879666</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.307918054493062</v>
@@ -27217,7 +27019,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.762541953165816</v>
+        <v>1.681482116911572</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.383587548264542</v>
@@ -27306,7 +27108,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.758425242554225</v>
+        <v>1.681501117623006</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.770614924846148</v>
@@ -27395,7 +27197,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.756436156876883</v>
+        <v>1.68447810151255</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.832739697134401</v>
@@ -27484,7 +27286,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.756816364401863</v>
+        <v>1.681336428041582</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.666262189471789</v>
@@ -27573,7 +27375,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.741949396323768</v>
+        <v>1.672753024756964</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.431748018255183</v>
@@ -27662,7 +27464,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.764471494742679</v>
+        <v>1.694109868188983</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.350685678855069</v>
@@ -27751,7 +27553,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.74855478069625</v>
+        <v>1.693998806514389</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.45419775667375</v>
@@ -27840,7 +27642,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.738106319996231</v>
+        <v>1.67628968273775</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.504581390418036</v>
@@ -28126,7 +27928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.773041247899538</v>
+        <v>1.749342870207311</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.808590493540871</v>
@@ -28215,7 +28017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.779265747349697</v>
+        <v>1.753123953937209</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.985492727670381</v>
@@ -28304,7 +28106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.781909421854091</v>
+        <v>1.749349988513735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.00570412781371</v>
@@ -28393,7 +28195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.772226181815941</v>
+        <v>1.738241902894237</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.865198360902038</v>
@@ -28482,7 +28284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.771959971719335</v>
+        <v>1.736706611098447</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.895954350507977</v>
@@ -28571,7 +28373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.777678916805069</v>
+        <v>1.740522021694379</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.909812176891889</v>
@@ -28660,7 +28462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.789528013969421</v>
+        <v>1.754230703468475</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.507389571160246</v>
@@ -28749,7 +28551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.798737110793904</v>
+        <v>1.765790889094234</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.138904224344107</v>
@@ -28838,7 +28640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.836070057666221</v>
+        <v>1.798985799407987</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.6052976234391</v>
@@ -28927,7 +28729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.829397844285378</v>
+        <v>1.791448502753159</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.39956795059417</v>
@@ -29016,7 +28818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.83362492737807</v>
+        <v>1.798010976826055</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.174530307313502</v>
@@ -29105,7 +28907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.836363020871643</v>
+        <v>1.802996493712762</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.944039596668429</v>
@@ -29194,7 +28996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.837831586555175</v>
+        <v>1.809057799438194</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.175514572053689</v>
@@ -29283,7 +29085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.846632010041982</v>
+        <v>1.819373847172133</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.246762402265177</v>
@@ -29372,7 +29174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.838396292125336</v>
+        <v>1.815775933842451</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.575553208164578</v>
@@ -29461,7 +29263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.846897583729512</v>
+        <v>1.822935568099643</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.004354699106621</v>
@@ -29550,7 +29352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.852504986729118</v>
+        <v>1.830060387437241</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.728899223694873</v>
@@ -29639,7 +29441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.845405939681034</v>
+        <v>1.831550710343666</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.202172219109761</v>
@@ -29728,7 +29530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.854723965975514</v>
+        <v>1.836739043200727</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.322249546257896</v>
@@ -29817,7 +29619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.854611578662593</v>
+        <v>1.842165469854032</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.447663919288389</v>
@@ -29906,7 +29708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.850041277040592</v>
+        <v>1.84062457489127</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.572022591855023</v>
@@ -29995,7 +29797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.8552787929771</v>
+        <v>1.842151496681034</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.617519253962278</v>
@@ -30084,7 +29886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.85897620128468</v>
+        <v>1.847163260690422</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.126715726819319</v>
@@ -30173,7 +29975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.86622970042346</v>
+        <v>1.848801173921725</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.75170230894122</v>
@@ -30262,7 +30064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.87561376590009</v>
+        <v>1.86292063618664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.392269680636635</v>
@@ -30351,7 +30153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.877620282742802</v>
+        <v>1.861811033906914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.590132485731518</v>
@@ -30440,7 +30242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.882383212644944</v>
+        <v>1.86506439447855</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.688601638566575</v>
@@ -30529,7 +30331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.895010729996592</v>
+        <v>1.877366309821988</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.880783179883811</v>
@@ -30618,7 +30420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.894534132493869</v>
+        <v>1.876445074456297</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.893079708053107</v>
@@ -30707,7 +30509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.905997961677855</v>
+        <v>1.886764939135009</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.898424325086729</v>
@@ -30796,7 +30598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.907007892348165</v>
+        <v>1.886465477275253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.853898966190587</v>
@@ -30885,7 +30687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.906502467462772</v>
+        <v>1.889807285313934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.425474602688001</v>
@@ -30974,7 +30776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.911614016702882</v>
+        <v>1.896755650285459</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.935129771879981</v>
@@ -31063,7 +30865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.91244381699218</v>
+        <v>1.895297853022773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.523840058286228</v>
@@ -31152,7 +30954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.909928792337044</v>
+        <v>1.886749692626395</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.764134305066229</v>
@@ -31241,7 +31043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.90127603996231</v>
+        <v>1.876486940034678</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.775023833960878</v>
@@ -31330,7 +31132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.889284141502303</v>
+        <v>1.864850197723998</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.783244247357308</v>
@@ -31419,7 +31221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.87994849863554</v>
+        <v>1.850100957187796</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.353301936278182</v>
@@ -31508,7 +31310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.87778941145873</v>
+        <v>1.846176909327012</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.377400200240391</v>
@@ -31597,7 +31399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.870214476589662</v>
+        <v>1.829963471230862</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.633236942971709</v>
@@ -31686,7 +31488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.861038257953724</v>
+        <v>1.818361865587827</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.309155986823203</v>
@@ -31775,7 +31577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.854312816597114</v>
+        <v>1.812352325653646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.779158111003284</v>
@@ -31864,7 +31666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.840194453715702</v>
+        <v>1.800785942618739</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.082943003342296</v>
@@ -31953,7 +31755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.822877940931668</v>
+        <v>1.791488448535599</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.976143896062845</v>
@@ -32042,7 +31844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.816611332736716</v>
+        <v>1.780043868652818</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.25058517048236</v>
@@ -32131,7 +31933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.805315842146558</v>
+        <v>1.773484765768304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.203526177230207</v>
@@ -32220,7 +32022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.799068341894931</v>
+        <v>1.757930506747193</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.057488206384272</v>
@@ -32309,7 +32111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.795239886456905</v>
+        <v>1.747551548507689</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.20052300546261</v>
@@ -32398,7 +32200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.788546572882417</v>
+        <v>1.737824608581702</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.184722875216154</v>
@@ -32487,7 +32289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.785783505394135</v>
+        <v>1.733388131908722</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.219601789400589</v>
@@ -32576,7 +32378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.779847322998521</v>
+        <v>1.728286702394085</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.265751335056149</v>
@@ -32665,7 +32467,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.773900396773327</v>
+        <v>1.724691195024846</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.216469099656785</v>
@@ -32754,7 +32556,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.77258527297365</v>
+        <v>1.724401530242195</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.072655110201267</v>
@@ -32843,7 +32645,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.768695904261784</v>
+        <v>1.719265943746443</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.092625572825887</v>
@@ -32932,7 +32734,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.76604175071066</v>
+        <v>1.723201749763211</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.224474242346163</v>
@@ -33021,7 +32823,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.765421522565396</v>
+        <v>1.719709069679086</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.083870004391693</v>
@@ -33110,7 +32912,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.761173960827355</v>
+        <v>1.710856662651169</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.814085487658034</v>
@@ -33199,7 +33001,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.74583206935757</v>
+        <v>1.683385284310492</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.114619623594131</v>
@@ -33288,7 +33090,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.749462220128357</v>
+        <v>1.67779213027696</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.687852279532612</v>
@@ -33377,7 +33179,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.744889844236709</v>
+        <v>1.673796895371167</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.499170275082482</v>
@@ -33466,7 +33268,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.764385773545301</v>
+        <v>1.693857402901026</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.022243417864254</v>
@@ -33555,7 +33357,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.773657244795223</v>
+        <v>1.709579212054705</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.877378284601486</v>
@@ -33644,7 +33446,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.757638237763508</v>
+        <v>1.701676566696316</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.642405406250702</v>
@@ -33733,7 +33535,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.776814404570833</v>
+        <v>1.727022039699853</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.922100938819484</v>
@@ -33822,7 +33624,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.784113127207128</v>
+        <v>1.734609083570202</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.155937240877458</v>
@@ -33911,7 +33713,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.802617712084664</v>
+        <v>1.751008875095495</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.619131667894122</v>
@@ -34000,7 +33802,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.806009348500766</v>
+        <v>1.753400559771019</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.70412857100702</v>
@@ -34089,7 +33891,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.800702595503104</v>
+        <v>1.747807776277677</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.914960107462659</v>
@@ -34178,7 +33980,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.801820556889928</v>
+        <v>1.747953940341039</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.645457432619793</v>
@@ -34267,7 +34069,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.796823546752186</v>
+        <v>1.743008695542519</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.949377207514705</v>
@@ -34356,7 +34158,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.799781164571736</v>
+        <v>1.747687797146077</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.145916430576556</v>
@@ -34445,7 +34247,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.803519817189556</v>
+        <v>1.751199449298162</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.83647333450936</v>
@@ -34534,7 +34336,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.795107091955116</v>
+        <v>1.744849928153159</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.473083435998455</v>
@@ -34623,7 +34425,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.833219807699447</v>
+        <v>1.795961765374137</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.322558954328413</v>
@@ -34712,7 +34514,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.812934267993137</v>
+        <v>1.786782946620228</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.350343314262481</v>
@@ -34801,7 +34603,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.801213151887787</v>
+        <v>1.778134522321732</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.327252522029203</v>
@@ -35087,7 +34889,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620946628353397</v>
+        <v>1.623602456534714</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.8920701373095</v>
@@ -35176,7 +34978,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.622681178860967</v>
+        <v>1.625986599130476</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.733528270892231</v>
@@ -35265,7 +35067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.626815852992436</v>
+        <v>1.630714669663222</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.990109700173926</v>
@@ -35354,7 +35156,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.640983569021836</v>
+        <v>1.636189480074335</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.884544643464467</v>
@@ -35443,7 +35245,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.659565443864558</v>
+        <v>1.650913720872898</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.866204158613703</v>
@@ -35532,7 +35334,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.679692616916028</v>
+        <v>1.675815786737421</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.980001741729744</v>
@@ -35621,7 +35423,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.698966701751614</v>
+        <v>1.693571783685467</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.987731737987257</v>
@@ -35710,7 +35512,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.720550808164817</v>
+        <v>1.712829286367886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.785393188314299</v>
@@ -35799,7 +35601,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.758348873611501</v>
+        <v>1.749197398911863</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.859866291655987</v>
@@ -35888,7 +35690,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.787974021066876</v>
+        <v>1.767661038339911</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.544928556431188</v>
@@ -35977,7 +35779,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.794128584614612</v>
+        <v>1.772190676196763</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.785469262637402</v>
@@ -36066,7 +35868,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.787360018925082</v>
+        <v>1.767385112163635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.949484991979775</v>
@@ -36155,7 +35957,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.765918979523155</v>
+        <v>1.7478529838826</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.055099721224401</v>
@@ -36244,7 +36046,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.778634266863111</v>
+        <v>1.762632961636321</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.00235374617368</v>
@@ -36333,7 +36135,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.782508236994935</v>
+        <v>1.773022049235895</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.464614573023753</v>
@@ -36422,7 +36224,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791487681906879</v>
+        <v>1.784456552984733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.339604374500044</v>
@@ -36511,7 +36313,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.813033288807536</v>
+        <v>1.807325493305496</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.22958380022494</v>
@@ -36600,7 +36402,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.799854991802902</v>
+        <v>1.798895589084835</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.395498728762264</v>
@@ -36689,7 +36491,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.794372267053607</v>
+        <v>1.791699932140645</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.74784511935384</v>
@@ -36778,7 +36580,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.797871976180646</v>
+        <v>1.800310209130641</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.040633301314775</v>
@@ -36867,7 +36669,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.796452515076336</v>
+        <v>1.799261587989823</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.654142056845842</v>
@@ -36956,7 +36758,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.812243203761687</v>
+        <v>1.817255776510291</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.394195985411523</v>
@@ -37045,7 +36847,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.808268584998272</v>
+        <v>1.821670087166769</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.017423410246504</v>
@@ -37134,7 +36936,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.787923746835711</v>
+        <v>1.810384400531628</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.462560469654698</v>
@@ -37223,7 +37025,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.774189603019179</v>
+        <v>1.804880102893077</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.435489980790342</v>
@@ -37312,7 +37114,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769648584399516</v>
+        <v>1.803859565416805</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.570258923345753</v>
@@ -37401,7 +37203,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.765602509779901</v>
+        <v>1.803800719115686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.596083447669007</v>
@@ -37490,7 +37292,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.781855320324691</v>
+        <v>1.820080640492735</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.851783237680862</v>
@@ -37579,7 +37381,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.789154096073476</v>
+        <v>1.824767480744563</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.740547390074629</v>
@@ -37668,7 +37470,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.789203650907609</v>
+        <v>1.823565340151805</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.483408497100879</v>
@@ -37757,7 +37559,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.786330443789143</v>
+        <v>1.81775450624406</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.672863709008456</v>
@@ -37846,7 +37648,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.771127114717315</v>
+        <v>1.803595974578084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.322170543108555</v>
@@ -37935,7 +37737,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.779323348651331</v>
+        <v>1.807955331329559</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.428964012088902</v>
@@ -38024,7 +37826,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.791651902692906</v>
+        <v>1.814979969182385</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.351865896878668</v>
@@ -38113,7 +37915,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.790872727171196</v>
+        <v>1.809261346789485</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.76156197065015</v>
@@ -38202,7 +38004,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.780513475136823</v>
+        <v>1.799966196229843</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.630106962586551</v>
@@ -38291,7 +38093,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.772574325668548</v>
+        <v>1.78998150547064</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.191854621415285</v>
@@ -38380,7 +38182,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.780147537880748</v>
+        <v>1.788916386749568</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.935953790749678</v>
@@ -38469,7 +38271,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.814058832990936</v>
+        <v>1.810084246921131</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.361299252411306</v>
@@ -38558,7 +38360,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.809991751900254</v>
+        <v>1.806938013422116</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.562224101890226</v>
@@ -38647,7 +38449,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.812675909410783</v>
+        <v>1.80971513725021</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.072791007880049</v>
@@ -38736,7 +38538,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819421098962214</v>
+        <v>1.811026977975801</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.405024887097414</v>
@@ -38825,7 +38627,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.818454346839274</v>
+        <v>1.813192162950971</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.730413013231823</v>
@@ -38914,7 +38716,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.788248668643974</v>
+        <v>1.788879138582124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.325979158703348</v>
@@ -39003,7 +38805,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767681927848695</v>
+        <v>1.773250564899285</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.786382900332712</v>
@@ -39092,7 +38894,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.751423807506961</v>
+        <v>1.761772582484091</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.771281685629968</v>
@@ -39181,7 +38983,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.749691736546871</v>
+        <v>1.757685485676874</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.564162867506062</v>
@@ -39270,7 +39072,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750301662173235</v>
+        <v>1.75710724893551</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.546019264139667</v>
@@ -39359,7 +39161,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743084064366531</v>
+        <v>1.753387749007768</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.438394908039264</v>
@@ -39448,7 +39250,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.725088563928096</v>
+        <v>1.73488652266852</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.129787631034178</v>
@@ -39537,7 +39339,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723867595855092</v>
+        <v>1.724622679251985</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.369284831494647</v>
@@ -39626,7 +39428,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.702620995651004</v>
+        <v>1.705130910047766</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.047660859899183</v>
@@ -39715,7 +39517,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.682885335054871</v>
+        <v>1.68880492144975</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.318763011532159</v>
@@ -39804,7 +39606,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.671108266507423</v>
+        <v>1.674790801102184</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.887180308613475</v>
@@ -39893,7 +39695,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.656856411131836</v>
+        <v>1.663522992823857</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.263306347647972</v>
@@ -39982,7 +39784,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645829805904622</v>
+        <v>1.64861118545893</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.248846995568241</v>
@@ -40071,7 +39873,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.6232132205606</v>
+        <v>1.627399889170159</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.846005844539885</v>
@@ -40160,7 +39962,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604998520314266</v>
+        <v>1.599930470700459</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.79545153006453</v>
@@ -40249,7 +40051,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.602568846819377</v>
+        <v>1.59689282318558</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.066564737945127</v>
@@ -40338,7 +40140,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.614356627921259</v>
+        <v>1.603185990858374</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.151856261556533</v>
@@ -40427,7 +40229,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.620271955323609</v>
+        <v>1.61149714672498</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.958735069006308</v>
@@ -40516,7 +40318,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.627991706707694</v>
+        <v>1.621735326793143</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.072930101353456</v>
@@ -40605,7 +40407,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.621116101378016</v>
+        <v>1.618549464633683</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.880276301836267</v>
@@ -40694,7 +40496,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.638470861451425</v>
+        <v>1.636992045309138</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.992067052012706</v>
@@ -40783,7 +40585,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.658111381517334</v>
+        <v>1.656174436844289</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.74647546009631</v>
@@ -40872,7 +40674,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.678057388858166</v>
+        <v>1.683130970528168</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.837688253951392</v>
@@ -40961,7 +40763,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.693850800845478</v>
+        <v>1.699292931777433</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.112227397591452</v>
@@ -41050,7 +40852,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.697051502540698</v>
+        <v>1.698451816322657</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.12840814794522</v>
@@ -41139,7 +40941,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.709334262784349</v>
+        <v>1.707191947536159</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.193484365708165</v>
@@ -41228,7 +41030,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.720730675147343</v>
+        <v>1.719532172877601</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.061190975597649</v>
@@ -41317,7 +41119,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.72563293089591</v>
+        <v>1.72386528787103</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.188693025689604</v>
@@ -41406,7 +41208,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.720578043328884</v>
+        <v>1.713932131139013</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.273826960573074</v>
@@ -41495,7 +41297,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.711946328244005</v>
+        <v>1.713458176795403</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.005882305931764</v>
@@ -41584,7 +41386,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.776394329906684</v>
+        <v>1.779924352929313</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.241177642418375</v>
@@ -41673,7 +41475,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.743878195454419</v>
+        <v>1.76872061933181</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.378008093730057</v>
@@ -41762,7 +41564,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.749104073806208</v>
+        <v>1.772584456164615</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.329222155582038</v>
@@ -42048,7 +41850,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.62262290974806</v>
+        <v>1.653951955689161</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.640027660461411</v>
@@ -42137,7 +41939,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.656632323185355</v>
+        <v>1.683916360365649</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.592945161365377</v>
@@ -42226,7 +42028,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.688012939292759</v>
+        <v>1.710547637681487</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.482595951542293</v>
@@ -42315,7 +42117,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.686358078013956</v>
+        <v>1.704259400431522</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.401184728199245</v>
@@ -42404,7 +42206,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.716851821517901</v>
+        <v>1.723555680840874</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.450409788637481</v>
@@ -42493,7 +42295,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.721892327490508</v>
+        <v>1.741578337108399</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.623650759383774</v>
@@ -42582,7 +42384,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.732342731947579</v>
+        <v>1.754867999445637</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.550337098912089</v>
@@ -42671,7 +42473,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.771356722888844</v>
+        <v>1.793712423959761</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.822244965857195</v>
@@ -42760,7 +42562,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.838169897443889</v>
+        <v>1.853363846674341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.849301984067967</v>
@@ -42849,7 +42651,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.814629742193129</v>
+        <v>1.833650843284887</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.831688693524903</v>
@@ -42938,7 +42740,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.814526769732528</v>
+        <v>1.832026014275923</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.87417760186783</v>
@@ -43027,7 +42829,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.815869862529037</v>
+        <v>1.83712061419174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.064323097397621</v>
@@ -43116,7 +42918,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.81380381927679</v>
+        <v>1.834807273505579</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.830620621089877</v>
@@ -43205,7 +43007,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.835106912674306</v>
+        <v>1.854896443764508</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.306920982500039</v>
@@ -43294,7 +43096,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.833466967635295</v>
+        <v>1.852521294948774</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.087175038612501</v>
@@ -43383,7 +43185,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.805030387249186</v>
+        <v>1.831567433061017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.196686017825525</v>
@@ -43472,7 +43274,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.769392064810545</v>
+        <v>1.803751493722904</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.0712946576272</v>
@@ -43561,7 +43363,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.760874032598959</v>
+        <v>1.794707460608568</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.923039482800754</v>
@@ -43650,7 +43452,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.774082792647753</v>
+        <v>1.80649868172588</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.156189399672525</v>
@@ -43739,7 +43541,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.793273418655941</v>
+        <v>1.823797124213376</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.560688359148387</v>
@@ -43828,7 +43630,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.784036917870399</v>
+        <v>1.813729027277401</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.18361116119601</v>
@@ -43917,7 +43719,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.755266721316434</v>
+        <v>1.790097077620912</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.94256193326291</v>
@@ -44006,7 +43808,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.759071511437002</v>
+        <v>1.786236339505279</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.95200612566065</v>
@@ -44095,7 +43897,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.765340377922491</v>
+        <v>1.783667858339195</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.024579024565783</v>
@@ -44184,7 +43986,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.769063650502047</v>
+        <v>1.796448331447934</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.714573635757858</v>
@@ -44273,7 +44075,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747608294009498</v>
+        <v>1.77715218638345</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.991168503476285</v>
@@ -44362,7 +44164,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.742973984557598</v>
+        <v>1.77345227554072</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.960478622800856</v>
@@ -44451,7 +44253,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.754750142954891</v>
+        <v>1.786274760455822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.086807309119127</v>
@@ -44540,7 +44342,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768172652617128</v>
+        <v>1.799001366161332</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.844091927688477</v>
@@ -44629,7 +44431,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773286812936661</v>
+        <v>1.805924913288297</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.957950295536667</v>
@@ -44718,7 +44520,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.800044529465514</v>
+        <v>1.828126342017474</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.950231547296412</v>
@@ -44807,7 +44609,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.79953500185956</v>
+        <v>1.826222790905875</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.968247335824336</v>
@@ -44896,7 +44698,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.802172130958431</v>
+        <v>1.829815010402505</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.09165161934777</v>
@@ -44985,7 +44787,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.808664764988158</v>
+        <v>1.835558918288531</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.841927971998753</v>
@@ -45074,7 +44876,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.806832273495524</v>
+        <v>1.830606102588288</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.044274530097903</v>
@@ -45163,7 +44965,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.766699127490284</v>
+        <v>1.795659484477804</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.981672221255955</v>
@@ -45252,7 +45054,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.771593955272847</v>
+        <v>1.799591546281158</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.078342756816993</v>
@@ -45341,7 +45143,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.769793717795515</v>
+        <v>1.799367207537474</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.878449700536282</v>
@@ -45430,7 +45232,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.778990658938203</v>
+        <v>1.805384010464409</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.822595198547702</v>
@@ -45519,7 +45321,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.78229140876957</v>
+        <v>1.807140767667801</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.160209675454632</v>
@@ -45608,7 +45410,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.789644648858868</v>
+        <v>1.810033439487138</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.023268465094285</v>
@@ -45697,7 +45499,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.780542057485636</v>
+        <v>1.79981046944149</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.609745020121311</v>
@@ -45786,7 +45588,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.732196615952462</v>
+        <v>1.757248859601128</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.378004050374938</v>
@@ -45875,7 +45677,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720246447189255</v>
+        <v>1.746251008322311</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.462949208545238</v>
@@ -45964,7 +45766,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.711032241823499</v>
+        <v>1.736341045144967</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.52194100681725</v>
@@ -46053,7 +45855,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695397434074973</v>
+        <v>1.722724345103339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.524684684723356</v>
@@ -46142,7 +45944,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.718001770551117</v>
+        <v>1.740812978655721</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.446443213112028</v>
@@ -46231,7 +46033,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.716234629475511</v>
+        <v>1.736959501669301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.419381102855298</v>
@@ -46320,7 +46122,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.692498598804119</v>
+        <v>1.715975833707911</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.478559872794873</v>
@@ -46409,7 +46211,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.702142740587529</v>
+        <v>1.721857434265655</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.227040740824469</v>
@@ -46498,7 +46300,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.726415184479277</v>
+        <v>1.744035307798859</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.337887126128532</v>
@@ -46587,7 +46389,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.726326543540114</v>
+        <v>1.748740320374001</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.439081132933253</v>
@@ -46676,7 +46478,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.720518689239256</v>
+        <v>1.740673948846448</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.510039408020639</v>
@@ -46765,7 +46567,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.711388424715013</v>
+        <v>1.732097005439037</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.564126425111708</v>
@@ -46854,7 +46656,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.693543583941183</v>
+        <v>1.723519736446572</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.503269772241957</v>
@@ -46943,7 +46745,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.705285658660663</v>
+        <v>1.737020313421946</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.497230162390081</v>
@@ -47032,7 +46834,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.720654780173258</v>
+        <v>1.752065699217536</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.489245540602241</v>
@@ -47121,7 +46923,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.746270984892305</v>
+        <v>1.772241799738602</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.764575319434148</v>
@@ -47210,7 +47012,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.742249622642523</v>
+        <v>1.765959496748582</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.781936889822706</v>
@@ -47299,7 +47101,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.739743729958883</v>
+        <v>1.762884743155522</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.722645163005145</v>
@@ -47388,7 +47190,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.730960932344966</v>
+        <v>1.755840453456697</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.781099475184044</v>
@@ -47477,7 +47279,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.733354746542752</v>
+        <v>1.761377920863583</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.746526310983286</v>
@@ -47566,7 +47368,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.697109673940161</v>
+        <v>1.731474085045228</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.6844966979651</v>
@@ -47655,7 +47457,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.715759470129526</v>
+        <v>1.750981004362558</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.754676856959644</v>
@@ -47744,7 +47546,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.712587842893638</v>
+        <v>1.747402929095915</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.705228774069896</v>
@@ -47833,7 +47635,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.749810580819458</v>
+        <v>1.778504863234886</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.85106425141013</v>
@@ -47922,7 +47724,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.749599363832861</v>
+        <v>1.776753221848968</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.71908460065754</v>
@@ -48011,7 +47813,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.763635722455592</v>
+        <v>1.78773374994173</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.798413093934659</v>
@@ -48100,7 +47902,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.789963829758217</v>
+        <v>1.806318568639511</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.867064859083931</v>
@@ -48189,7 +47991,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.796465267012733</v>
+        <v>1.815476275494975</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.837477434094161</v>
@@ -48278,7 +48080,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.790900412882141</v>
+        <v>1.808929111557514</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.793289747723242</v>
@@ -48367,7 +48169,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.787942659411695</v>
+        <v>1.801804010585963</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.807707038907341</v>
@@ -48456,7 +48258,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.785737505789546</v>
+        <v>1.802041278781839</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.821683356425742</v>
@@ -48545,7 +48347,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.801597334903411</v>
+        <v>1.815547493665999</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.846987843277362</v>
@@ -48634,7 +48436,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.790157581042053</v>
+        <v>1.808815927286881</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.660752585561649</v>
@@ -48723,7 +48525,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.781159975242959</v>
+        <v>1.79883871390527</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.941175448677278</v>
